--- a/dev/tables_and_other/ML_model_performance.xlsx
+++ b/dev/tables_and_other/ML_model_performance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phil\Documents\GitHub\point_cloud_vegetation_filtering\dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phil\Documents\GitHub\point_cloud_vegetation_filtering\dev\tables_and_other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6454F8F3-8794-4095-9054-A2E0705BA861}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD18F405-8C39-4660-9E4D-9E023C21089E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{8DCF5AFF-D886-48A3-80E0-141B4EF1DBE8}"/>
   </bookViews>
@@ -12327,6 +12327,1315 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>all models</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$G$10:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2849</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11233</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44385</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2945</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11329</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44481</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>176321</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$10:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.91479999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93910000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93989999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91569999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94089999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93989999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94220000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93479999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.93879999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.93940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.94030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.85650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.92610000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.93640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.93940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.93640000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C986-4507-B437-660845EB975E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1124727360"/>
+        <c:axId val="1124727776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1124727360"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1124727776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1124727776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1124727360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1-6</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> layer models</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$G$10:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2849</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11233</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44385</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2945</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11329</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44481</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>176321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$10:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.91479999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93910000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93989999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91569999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94089999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93989999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94220000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94169999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8A3-4578-B055-FEAF4BDD492E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1124727360"/>
+        <c:axId val="1124727776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1124727360"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1124727776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1124727776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1124727360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2-3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> layer models</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$G$28:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$28:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.93479999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93879999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92610000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93640000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD5A-4085-98DD-D29ECFC0A4F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1124727360"/>
+        <c:axId val="1124727776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1124727360"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1124727776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1124727776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1124727360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Computing Standard Deviation over r=0.5m</a:t>
             </a:r>
           </a:p>
@@ -12783,7 +14092,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -19256,6 +20565,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -28825,6 +30254,1554 @@
 </file>
 
 <file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style29.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -33869,6 +36846,120 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD332FE-4306-40F7-9AF1-3EFCCB96D4B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D46858-D0E5-4C70-BCC1-3DDB7C8334D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDA9C338-9FCE-49AC-9E61-356FF59E2EA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -37107,8 +40198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9EEADE-EB92-49D2-AC21-19FD28E12729}">
   <dimension ref="A1:AP43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dev/tables_and_other/ML_model_performance.xlsx
+++ b/dev/tables_and_other/ML_model_performance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phil\Documents\GitHub\point_cloud_vegetation_filtering\dev\tables_and_other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/pwernette_usgs_gov/Documents/GitHub/point_cloud_vegetation_filtering/dev/tables_and_other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD18F405-8C39-4660-9E4D-9E023C21089E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{BD18F405-8C39-4660-9E4D-9E023C21089E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6573A2DD-374E-4480-96BF-9271758BD52C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{8DCF5AFF-D886-48A3-80E0-141B4EF1DBE8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8DCF5AFF-D886-48A3-80E0-141B4EF1DBE8}"/>
   </bookViews>
   <sheets>
     <sheet name="analysis" sheetId="1" r:id="rId1"/>
@@ -13622,6 +13622,3600 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>train_epochs=100;  batch=1000;  patience=5;  min_delta=0.001</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RGB only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$H$10:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.91479999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93910000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93989999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93979999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4DB-49F1-9D05-7453552DFD6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RGB + Simple Indices</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$H$16:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2849</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11233</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$16:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.91569999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94089999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94099999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B4DB-49F1-9D05-7453552DFD6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>RGB + All Indices</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$H$22:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2945</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$22:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.93140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93989999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94220000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94169999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B4DB-49F1-9D05-7453552DFD6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2 layers (8 nodes)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$G$34:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$34:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.85650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92610000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B4DB-49F1-9D05-7453552DFD6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>3 layers (8 nodes)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$G$37:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$37:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.93640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93640000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B4DB-49F1-9D05-7453552DFD6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>2 layers (16 nodes)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$H$28:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$28:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.93479999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93879999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B4DB-49F1-9D05-7453552DFD6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>3 layers (16 nodes)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$H$31:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>785</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$31:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.93940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94030000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B4DB-49F1-9D05-7453552DFD6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="375080944"/>
+        <c:axId val="375083024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="375080944"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Number of Tunable Parameters</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375083024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="375083024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375080944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>train_epochs=100;  batch=1000;  patience=5;  min_delta=0.001</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RGB only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$H$10:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.91479999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93910000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93989999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93979999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1C3-4F28-8FDD-F7A01D34FA9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RGB + Simple Indices</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$H$16:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2849</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11233</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$16:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.91569999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94089999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94099999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B1C3-4F28-8FDD-F7A01D34FA9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>RGB + All Indices</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$H$22:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2945</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$22:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.93140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93989999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94220000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94169999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B1C3-4F28-8FDD-F7A01D34FA9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2 layers (8 nodes)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$G$34:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$34:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.85650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92610000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B1C3-4F28-8FDD-F7A01D34FA9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>3 layers (8 nodes)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$G$37:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$37:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.93640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93640000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B1C3-4F28-8FDD-F7A01D34FA9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>2 layers (16 nodes)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$H$28:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$28:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.93479999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93879999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B1C3-4F28-8FDD-F7A01D34FA9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>3 layers (16 nodes)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$H$31:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>785</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$31:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.93940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94030000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B1C3-4F28-8FDD-F7A01D34FA9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="375080944"/>
+        <c:axId val="375083024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="375080944"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Number of Tunable Parameters</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375083024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="375083024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375080944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>train_epochs=100;  batch=1000;  patience=5;  min_delta=0.001</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RGB only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis!$AA$10:$AA$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2495</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2933</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3343</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3837</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis!$Y$10:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.9042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93679999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D7F-4BF8-B996-FF7E38395029}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RGB+indices</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis!$AA$16:$AA$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1534</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis!$Y$16:$Y$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.91159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93679999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93720000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93769999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93720000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3D7F-4BF8-B996-FF7E38395029}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>All indices</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis!$AA$22:$AA$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2781</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4860</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis!$Y$22:$Y$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.9284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93720000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3D7F-4BF8-B996-FF7E38395029}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="375080944"/>
+        <c:axId val="375083024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="375080944"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375083024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="375083024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375080944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>train_epochs=100;  batch=1000;  patience=5;  min_delta=0.001</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RGB only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$F$10:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.91479999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93910000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93989999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93979999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1C5-47F2-9374-78C5CD014597}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RGB+indices</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$F$16:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$16:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.91569999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94089999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94099999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F1C5-47F2-9374-78C5CD014597}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>All indices</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$F$22:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1648</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$22:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.93140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93989999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94220000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94169999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F1C5-47F2-9374-78C5CD014597}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2 layers (8 nodes)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$F$34:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$34:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.85650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92610000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F1C5-47F2-9374-78C5CD014597}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>3 layers (8 nodes)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$F$37:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$37:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.93640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93640000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F1C5-47F2-9374-78C5CD014597}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>2 layers (16 nodes)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$F$28:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1033</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$28:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.93479999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93879999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F1C5-47F2-9374-78C5CD014597}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>3 layers (16 nodes)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$F$31:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>742</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis_UPDATED_functions!$D$31:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.93940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94030000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F1C5-47F2-9374-78C5CD014597}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="375080944"/>
+        <c:axId val="375083024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="375080944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375083024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="375083024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375080944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -14092,7 +17686,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14539,687 +18133,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>train_epochs=100;  batch=1000;  patience=5;  min_delta=0.001</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1000">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>RGB only</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>analysis!$AA$10:$AA$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2495</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3111</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2933</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3343</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3602</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3837</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>analysis!$Y$10:$Y$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.9042</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.93600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.93659999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.93669999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.93669999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.93679999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3D7F-4BF8-B996-FF7E38395029}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>RGB+indices</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>analysis!$AA$16:$AA$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1541</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1514</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1556</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1534</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1826</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1389</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>analysis!$Y$16:$Y$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.91159999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.93679999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.93720000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9375</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.93769999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.93720000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3D7F-4BF8-B996-FF7E38395029}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>All indices</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>analysis!$AA$22:$AA$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3088</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2421</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2781</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4860</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2857</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3245</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>analysis!$Y$22:$Y$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.9284</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.93700000000000006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.93720000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.93859999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.93869999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9385</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3D7F-4BF8-B996-FF7E38395029}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="375080944"/>
-        <c:axId val="375083024"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="375080944"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Training Time (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="375083024"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="375083024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Accuracy</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="375080944"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -20725,6 +23638,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors30.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors31.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors32.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -32318,6 +35351,1554 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style30.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style31.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style32.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -36960,6 +41541,120 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ED987DE-77CF-49C0-A760-6C9101814D99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A36971C8-D788-4356-859F-F4A921FD9864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Chart 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE64D23D-75D7-42A8-8CEE-5994419D5D40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -37345,42 +42040,42 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.42578125" style="17" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="17"/>
-    <col min="25" max="25" width="14.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" style="17"/>
-    <col min="28" max="28" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="39.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="36" max="39" width="9.140625" style="17"/>
-    <col min="40" max="40" width="11.140625" style="17" customWidth="1"/>
-    <col min="41" max="41" width="9.140625" style="17"/>
-    <col min="42" max="42" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.44140625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="9.109375" style="17"/>
+    <col min="25" max="25" width="14.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.109375" style="17"/>
+    <col min="28" max="28" width="12.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="39.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="36" max="39" width="9.109375" style="17"/>
+    <col min="40" max="40" width="11.109375" style="17" customWidth="1"/>
+    <col min="41" max="41" width="9.109375" style="17"/>
+    <col min="42" max="42" width="12.33203125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>60</v>
       </c>
@@ -37390,7 +42085,7 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>68</v>
       </c>
@@ -37405,7 +42100,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="42"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>69</v>
       </c>
@@ -37420,7 +42115,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="42"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>63</v>
       </c>
@@ -37439,7 +42134,7 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -37467,7 +42162,7 @@
         <v>-4.07676 +/- 3.15798</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -37495,7 +42190,7 @@
         <v>2.49867 +/- 2.31663</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>42</v>
       </c>
@@ -37517,7 +42212,7 @@
       <c r="AH8" s="46"/>
       <c r="AI8" s="46"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -37601,7 +42296,7 @@
         <v>Total Params</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -37664,7 +42359,7 @@
       <c r="AO10" s="46"/>
       <c r="AP10" s="46"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>2</v>
       </c>
@@ -37745,7 +42440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>3</v>
       </c>
@@ -37834,7 +42529,7 @@
         <v>155.66666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
         <v>4</v>
       </c>
@@ -37923,7 +42618,7 @@
         <v>715.66666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>5</v>
       </c>
@@ -38012,7 +42707,7 @@
         <v>2859.6666666666665</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B15" s="10">
         <v>6</v>
       </c>
@@ -38141,7 +42836,7 @@
         <v>11243.666666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>1</v>
       </c>
@@ -38240,7 +42935,7 @@
         <v>44395.666666666664</v>
       </c>
     </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
         <v>2</v>
       </c>
@@ -38339,7 +43034,7 @@
         <v>176235.66666666666</v>
       </c>
     </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>3</v>
       </c>
@@ -38400,7 +43095,7 @@
       <c r="AH18" s="26"/>
       <c r="AI18" s="26"/>
     </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
         <v>4</v>
       </c>
@@ -38499,7 +43194,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
         <v>5</v>
       </c>
@@ -38598,7 +43293,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B21" s="10">
         <v>6</v>
       </c>
@@ -38727,7 +43422,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>1</v>
       </c>
@@ -38784,7 +43479,7 @@
       <c r="AH22" s="26"/>
       <c r="AI22" s="26"/>
     </row>
-    <row r="23" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B23" s="7">
         <v>2</v>
       </c>
@@ -38841,7 +43536,7 @@
       <c r="AH23" s="26"/>
       <c r="AI23" s="26"/>
     </row>
-    <row r="24" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>3</v>
       </c>
@@ -38898,7 +43593,7 @@
       <c r="AH24" s="26"/>
       <c r="AI24" s="26"/>
     </row>
-    <row r="25" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B25" s="7">
         <v>4</v>
       </c>
@@ -38955,7 +43650,7 @@
       <c r="AH25" s="26"/>
       <c r="AI25" s="26"/>
     </row>
-    <row r="26" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B26" s="7">
         <v>5</v>
       </c>
@@ -39012,7 +43707,7 @@
       <c r="AH26" s="26"/>
       <c r="AI26" s="26"/>
     </row>
-    <row r="27" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B27" s="10">
         <v>6</v>
       </c>
@@ -39103,7 +43798,7 @@
         <v>39353</v>
       </c>
     </row>
-    <row r="28" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>2</v>
       </c>
@@ -39160,7 +43855,7 @@
       <c r="AH28" s="26"/>
       <c r="AI28" s="26"/>
     </row>
-    <row r="29" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B29" s="7">
         <v>2</v>
       </c>
@@ -39217,7 +43912,7 @@
       <c r="AH29" s="26"/>
       <c r="AI29" s="26"/>
     </row>
-    <row r="30" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B30" s="10">
         <v>2</v>
       </c>
@@ -39308,7 +44003,7 @@
         <v>427.66666666666669</v>
       </c>
     </row>
-    <row r="31" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <v>3</v>
       </c>
@@ -39365,7 +44060,7 @@
       <c r="AH31" s="26"/>
       <c r="AI31" s="26"/>
     </row>
-    <row r="32" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B32" s="7">
         <v>3</v>
       </c>
@@ -39422,7 +44117,7 @@
       <c r="AH32" s="26"/>
       <c r="AI32" s="26"/>
     </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B33" s="10">
         <v>3</v>
       </c>
@@ -39513,7 +44208,7 @@
         <v>699.66666666666663</v>
       </c>
     </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
         <v>2</v>
       </c>
@@ -39570,7 +44265,7 @@
       <c r="AH34" s="26"/>
       <c r="AI34" s="26"/>
     </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B35" s="7">
         <v>2</v>
       </c>
@@ -39627,7 +44322,7 @@
       <c r="AH35" s="26"/>
       <c r="AI35" s="26"/>
     </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B36" s="10">
         <v>2</v>
       </c>
@@ -39718,7 +44413,7 @@
         <v>150.33333333333334</v>
       </c>
     </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
         <v>3</v>
       </c>
@@ -39775,7 +44470,7 @@
       <c r="AH37" s="26"/>
       <c r="AI37" s="26"/>
     </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B38" s="7">
         <v>3</v>
       </c>
@@ -39832,7 +44527,7 @@
       <c r="AH38" s="26"/>
       <c r="AI38" s="26"/>
     </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B39" s="10">
         <v>3</v>
       </c>
@@ -39923,7 +44618,7 @@
         <v>222.33333333333334</v>
       </c>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B40" s="36">
         <v>3</v>
       </c>
@@ -39967,7 +44662,7 @@
       <c r="AH40" s="26"/>
       <c r="AI40" s="26"/>
     </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B41" s="37">
         <v>3</v>
       </c>
@@ -40026,7 +44721,7 @@
       <c r="AH41" s="26"/>
       <c r="AI41" s="26"/>
     </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B42" s="36">
         <v>3</v>
       </c>
@@ -40070,7 +44765,7 @@
       <c r="AH42" s="26"/>
       <c r="AI42" s="26"/>
     </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B43" s="37">
         <v>3</v>
       </c>
@@ -40198,46 +44893,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9EEADE-EB92-49D2-AC21-19FD28E12729}">
   <dimension ref="A1:AP43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.42578125" style="17" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="17"/>
-    <col min="25" max="25" width="14.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" style="17"/>
-    <col min="28" max="28" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="39.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="36" max="39" width="9.140625" style="17"/>
-    <col min="40" max="40" width="11.140625" style="17" customWidth="1"/>
-    <col min="41" max="41" width="9.140625" style="17"/>
-    <col min="42" max="42" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.44140625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="9.109375" style="17"/>
+    <col min="25" max="25" width="14.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.109375" style="17"/>
+    <col min="28" max="28" width="12.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="39.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="36" max="39" width="9.109375" style="17"/>
+    <col min="40" max="40" width="11.109375" style="17" customWidth="1"/>
+    <col min="41" max="41" width="9.109375" style="17"/>
+    <col min="42" max="42" width="12.33203125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>60</v>
       </c>
@@ -40247,7 +44942,7 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>68</v>
       </c>
@@ -40262,7 +44957,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="43"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>69</v>
       </c>
@@ -40277,7 +44972,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="43"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>63</v>
       </c>
@@ -40296,7 +44991,7 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -40324,7 +45019,7 @@
         <v>-4.07676 +/- 3.15798</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -40352,7 +45047,7 @@
         <v>2.49867 +/- 2.31663</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>42</v>
       </c>
@@ -40374,7 +45069,7 @@
       <c r="AH8" s="46"/>
       <c r="AI8" s="46"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -40458,7 +45153,7 @@
         <v>Total Params</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -40521,7 +45216,7 @@
       <c r="AO10" s="46"/>
       <c r="AP10" s="46"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>2</v>
       </c>
@@ -40602,7 +45297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>3</v>
       </c>
@@ -40691,7 +45386,7 @@
         <v>155.66666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
         <v>4</v>
       </c>
@@ -40780,7 +45475,7 @@
         <v>715.66666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>5</v>
       </c>
@@ -40869,7 +45564,7 @@
         <v>2859.6666666666665</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B15" s="10">
         <v>6</v>
       </c>
@@ -40998,7 +45693,7 @@
         <v>11243.666666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>1</v>
       </c>
@@ -41097,7 +45792,7 @@
         <v>44395.666666666664</v>
       </c>
     </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
         <v>2</v>
       </c>
@@ -41196,7 +45891,7 @@
         <v>176235.66666666666</v>
       </c>
     </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>3</v>
       </c>
@@ -41257,7 +45952,7 @@
       <c r="AH18" s="26"/>
       <c r="AI18" s="26"/>
     </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
         <v>4</v>
       </c>
@@ -41356,7 +46051,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
         <v>5</v>
       </c>
@@ -41455,7 +46150,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B21" s="10">
         <v>6</v>
       </c>
@@ -41584,7 +46279,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>1</v>
       </c>
@@ -41641,7 +46336,7 @@
       <c r="AH22" s="26"/>
       <c r="AI22" s="26"/>
     </row>
-    <row r="23" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B23" s="7">
         <v>2</v>
       </c>
@@ -41698,7 +46393,7 @@
       <c r="AH23" s="26"/>
       <c r="AI23" s="26"/>
     </row>
-    <row r="24" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>3</v>
       </c>
@@ -41755,7 +46450,7 @@
       <c r="AH24" s="26"/>
       <c r="AI24" s="26"/>
     </row>
-    <row r="25" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B25" s="7">
         <v>4</v>
       </c>
@@ -41812,7 +46507,7 @@
       <c r="AH25" s="26"/>
       <c r="AI25" s="26"/>
     </row>
-    <row r="26" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B26" s="7">
         <v>5</v>
       </c>
@@ -41869,7 +46564,7 @@
       <c r="AH26" s="26"/>
       <c r="AI26" s="26"/>
     </row>
-    <row r="27" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B27" s="10">
         <v>6</v>
       </c>
@@ -41960,7 +46655,7 @@
         <v>39353</v>
       </c>
     </row>
-    <row r="28" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>2</v>
       </c>
@@ -42017,7 +46712,7 @@
       <c r="AH28" s="26"/>
       <c r="AI28" s="26"/>
     </row>
-    <row r="29" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B29" s="7">
         <v>2</v>
       </c>
@@ -42074,7 +46769,7 @@
       <c r="AH29" s="26"/>
       <c r="AI29" s="26"/>
     </row>
-    <row r="30" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B30" s="10">
         <v>2</v>
       </c>
@@ -42165,7 +46860,7 @@
         <v>427.66666666666669</v>
       </c>
     </row>
-    <row r="31" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <v>3</v>
       </c>
@@ -42222,7 +46917,7 @@
       <c r="AH31" s="26"/>
       <c r="AI31" s="26"/>
     </row>
-    <row r="32" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B32" s="7">
         <v>3</v>
       </c>
@@ -42279,7 +46974,7 @@
       <c r="AH32" s="26"/>
       <c r="AI32" s="26"/>
     </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B33" s="10">
         <v>3</v>
       </c>
@@ -42370,7 +47065,7 @@
         <v>699.66666666666663</v>
       </c>
     </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
         <v>2</v>
       </c>
@@ -42427,7 +47122,7 @@
       <c r="AH34" s="26"/>
       <c r="AI34" s="26"/>
     </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B35" s="7">
         <v>2</v>
       </c>
@@ -42484,7 +47179,7 @@
       <c r="AH35" s="26"/>
       <c r="AI35" s="26"/>
     </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B36" s="10">
         <v>2</v>
       </c>
@@ -42575,7 +47270,7 @@
         <v>150.33333333333334</v>
       </c>
     </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
         <v>3</v>
       </c>
@@ -42632,7 +47327,7 @@
       <c r="AH37" s="26"/>
       <c r="AI37" s="26"/>
     </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B38" s="7">
         <v>3</v>
       </c>
@@ -42689,7 +47384,7 @@
       <c r="AH38" s="26"/>
       <c r="AI38" s="26"/>
     </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B39" s="10">
         <v>3</v>
       </c>
@@ -42780,7 +47475,7 @@
         <v>222.33333333333334</v>
       </c>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B40" s="36">
         <v>3</v>
       </c>
@@ -42824,7 +47519,7 @@
       <c r="AH40" s="26"/>
       <c r="AI40" s="26"/>
     </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B41" s="37">
         <v>3</v>
       </c>
@@ -42883,7 +47578,7 @@
       <c r="AH41" s="26"/>
       <c r="AI41" s="26"/>
     </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B42" s="36">
         <v>3</v>
       </c>
@@ -42927,7 +47622,7 @@
       <c r="AH42" s="26"/>
       <c r="AI42" s="26"/>
     </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B43" s="37">
         <v>3</v>
       </c>
@@ -43059,17 +47754,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="47" t="s">
@@ -43081,7 +47776,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>46</v>
       </c>
@@ -43101,7 +47796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>analysis!I10</f>
         <v>model_rgb_16</v>
@@ -43127,7 +47822,7 @@
         <v>0.9214</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>analysis!I11</f>
         <v>model_rgb_16_32</v>
@@ -43153,7 +47848,7 @@
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>analysis!I12</f>
         <v>model_rgb_16_32_64</v>
@@ -43179,7 +47874,7 @@
         <v>0.93859999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>analysis!I13</f>
         <v>model_rgb_16_32_64_128</v>
@@ -43205,7 +47900,7 @@
         <v>0.93659999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>analysis!I14</f>
         <v>model_rgb_16_32_64_128_256</v>
@@ -43231,7 +47926,7 @@
         <v>0.9385</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="str">
         <f>analysis!I15</f>
         <v>model_rgb_16_32_64_128_256_512</v>
@@ -43257,7 +47952,7 @@
         <v>0.93889999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>analysis!I16</f>
         <v>model_rgb_simple_16</v>
@@ -43283,7 +47978,7 @@
         <v>0.92269999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>analysis!I17</f>
         <v>model_rgb_simple_16_32</v>
@@ -43309,7 +48004,7 @@
         <v>0.94010000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>analysis!I18</f>
         <v>model_rgb_simple_16_32_64</v>
@@ -43335,7 +48030,7 @@
         <v>0.94030000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>analysis!I19</f>
         <v>model_rgb_simple_16_32_64_128</v>
@@ -43361,7 +48056,7 @@
         <v>0.94059999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>analysis!I20</f>
         <v>model_rgb_simple_16_32_64_128_256</v>
@@ -43387,7 +48082,7 @@
         <v>0.94089999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="str">
         <f>analysis!I21</f>
         <v>model_rgb_simple_16_32_64_128_256_512</v>
@@ -43413,7 +48108,7 @@
         <v>0.94079999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>analysis!I22</f>
         <v>all_16</v>
@@ -43439,7 +48134,7 @@
         <v>0.93530000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>analysis!I23</f>
         <v>all_16_32</v>
@@ -43465,7 +48160,7 @@
         <v>0.94010000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>analysis!I24</f>
         <v>all_16_32_64</v>
@@ -43491,7 +48186,7 @@
         <v>0.94010000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>analysis!I25</f>
         <v>all_16_32_64_128</v>
@@ -43517,7 +48212,7 @@
         <v>0.94130000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>analysis!I26</f>
         <v>all_16_32_64_128_256</v>
@@ -43543,7 +48238,7 @@
         <v>0.94230000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="str">
         <f>analysis!I27</f>
         <v>all_16_32_64_128_256_512</v>
@@ -43569,7 +48264,7 @@
         <v>0.94179999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>analysis!I28</f>
         <v>model_rgb_16_16</v>
@@ -43595,7 +48290,7 @@
         <v>0.93859999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>analysis!I29</f>
         <v>model_rgb_simple_16_16</v>
@@ -43621,7 +48316,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="str">
         <f>analysis!I30</f>
         <v>model_all_16_16</v>
@@ -43647,7 +48342,7 @@
         <v>0.94030000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>analysis!I31</f>
         <v>model_rgb_16_16_16</v>
@@ -43673,7 +48368,7 @@
         <v>0.93879999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>analysis!I32</f>
         <v>model_rgb_simple_16_16_16</v>
@@ -43699,7 +48394,7 @@
         <v>0.94040000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="str">
         <f>analysis!I33</f>
         <v>model_all_16_16_16</v>
@@ -43725,7 +48420,7 @@
         <v>0.94030000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>analysis!I34</f>
         <v>model_rgb_8_8</v>
@@ -43751,7 +48446,7 @@
         <v>0.89449999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>analysis!I35</f>
         <v>model_rgb_simple_8_8</v>
@@ -43777,7 +48472,7 @@
         <v>0.93859999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="str">
         <f>analysis!I36</f>
         <v>model_all_8_8</v>
@@ -43803,7 +48498,7 @@
         <v>0.93869999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>analysis!I37</f>
         <v>model_rgb_8_8_8</v>
@@ -43829,7 +48524,7 @@
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>analysis!I38</f>
         <v>model_rgb_simple_8_8_8</v>
@@ -43855,7 +48550,7 @@
         <v>0.94020000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>analysis!I39</f>
         <v>model_all_8_8_8</v>
@@ -43921,19 +48616,19 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="47" t="s">
@@ -43949,7 +48644,7 @@
       </c>
       <c r="H1" s="47"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>46</v>
       </c>
@@ -43975,7 +48670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>analysis!I10</f>
         <v>model_rgb_16</v>
@@ -44003,7 +48698,7 @@
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>analysis!I11</f>
         <v>model_rgb_16_32</v>
@@ -44031,7 +48726,7 @@
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>analysis!I12</f>
         <v>model_rgb_16_32_64</v>
@@ -44059,7 +48754,7 @@
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>analysis!I13</f>
         <v>model_rgb_16_32_64_128</v>
@@ -44087,7 +48782,7 @@
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>analysis!I14</f>
         <v>model_rgb_16_32_64_128_256</v>
@@ -44115,7 +48810,7 @@
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="str">
         <f>analysis!I15</f>
         <v>model_rgb_16_32_64_128_256_512</v>
@@ -44143,7 +48838,7 @@
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>analysis!I16</f>
         <v>model_rgb_simple_16</v>
@@ -44171,7 +48866,7 @@
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>analysis!I17</f>
         <v>model_rgb_simple_16_32</v>
@@ -44199,7 +48894,7 @@
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>analysis!I18</f>
         <v>model_rgb_simple_16_32_64</v>
@@ -44227,7 +48922,7 @@
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>analysis!I19</f>
         <v>model_rgb_simple_16_32_64_128</v>
@@ -44255,7 +48950,7 @@
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>analysis!I20</f>
         <v>model_rgb_simple_16_32_64_128_256</v>
@@ -44283,7 +48978,7 @@
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="str">
         <f>analysis!I21</f>
         <v>model_rgb_simple_16_32_64_128_256_512</v>
@@ -44311,7 +49006,7 @@
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>analysis!I22</f>
         <v>all_16</v>
@@ -44343,7 +49038,7 @@
         <v>52131820</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>analysis!I23</f>
         <v>all_16_32</v>
@@ -44375,7 +49070,7 @@
         <v>57493581</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>analysis!I24</f>
         <v>all_16_32_64</v>
@@ -44407,7 +49102,7 @@
         <v>57787109</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>analysis!I25</f>
         <v>all_16_32_64_128</v>
@@ -44439,7 +49134,7 @@
         <v>59336771</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>analysis!I26</f>
         <v>all_16_32_64_128_256</v>
@@ -44471,7 +49166,7 @@
         <v>59879060</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="str">
         <f>analysis!I27</f>
         <v>all_16_32_64_128_256_512</v>
@@ -44503,7 +49198,7 @@
         <v>59699547</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>analysis!I28</f>
         <v>model_rgb_16_16</v>
@@ -44535,7 +49230,7 @@
         <v>57665739</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>analysis!I29</f>
         <v>model_rgb_simple_16_16</v>
@@ -44567,7 +49262,7 @@
         <v>58200965</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="str">
         <f>analysis!I30</f>
         <v>model_all_16_16</v>
@@ -44599,7 +49294,7 @@
         <v>58251287</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>analysis!I31</f>
         <v>model_rgb_16_16_16</v>
@@ -44631,7 +49326,7 @@
         <v>61569343</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>analysis!I32</f>
         <v>model_rgb_simple_16_16_16</v>
@@ -44663,7 +49358,7 @@
         <v>58463719</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="str">
         <f>analysis!I33</f>
         <v>model_all_16_16_16</v>
@@ -44695,7 +49390,7 @@
         <v>59446486</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>analysis!I34</f>
         <v>model_rgb_8_8</v>
@@ -44727,7 +49422,7 @@
         <v>58230524</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>analysis!I35</f>
         <v>model_rgb_simple_8_8</v>
@@ -44759,7 +49454,7 @@
         <v>55678593</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="str">
         <f>analysis!I36</f>
         <v>model_all_8_8</v>
@@ -44791,7 +49486,7 @@
         <v>59376311</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>analysis!I37</f>
         <v>model_rgb_8_8_8</v>
@@ -44823,7 +49518,7 @@
         <v>63413350</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>analysis!I38</f>
         <v>model_rgb_simple_8_8_8</v>
@@ -44855,7 +49550,7 @@
         <v>57954872</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>analysis!I39</f>
         <v>model_all_8_8_8</v>
@@ -44929,15 +49624,15 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>54</v>
       </c>
@@ -44953,7 +49648,7 @@
       <c r="K1" s="45"/>
       <c r="L1" s="45"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -44967,7 +49662,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>250000</v>
       </c>
@@ -44981,7 +49676,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>500000</v>
       </c>
@@ -45003,7 +49698,7 @@
         <v>2.0277777777777777</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>750000</v>
       </c>
@@ -45033,7 +49728,7 @@
         <v>3.0555555555555554</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1000000</v>
       </c>
@@ -45071,25 +49766,25 @@
         <v>4.0555555555555554</v>
       </c>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G24" s="35">
         <f t="shared" ref="G24:G26" si="2">I3/B3</f>
         <v>0.13090909090909092</v>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G25" s="35">
         <f t="shared" si="2"/>
         <v>0.12351945854483926</v>
       </c>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G26" s="35">
         <f t="shared" si="2"/>
         <v>0.1206140350877193</v>
       </c>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G27" s="35">
         <f>I6/B6</f>
         <v>0.12279226240538267</v>
